--- a/July 22 to July 28 Deployments.xlsx
+++ b/July 22 to July 28 Deployments.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="281">
   <si>
     <t>Assigned User Name</t>
   </si>
@@ -1422,18 +1422,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4286,10 +4286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4309,50 +4309,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
@@ -4406,399 +4406,404 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>42579.625</v>
       </c>
       <c r="H4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>42579.541666666664</v>
       </c>
       <c r="H5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>42577.416666666664</v>
       </c>
       <c r="H6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>42573.541666666664</v>
       </c>
       <c r="H7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>42578.75</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="16"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>42579.416666666664</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>0.10416666666666667</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>42579.354166666664</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>42573.416666666664</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>42573.892361111109</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <v>0.64930555555555558</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="K12" s="17" t="s">
+      <c r="I12" s="17"/>
+      <c r="K12" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>42574.416666666664</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="K13" s="17" t="s">
+      <c r="I13" s="17"/>
+      <c r="K13" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>42578.510416666664</v>
       </c>
       <c r="H14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>42576.604166666664</v>
       </c>
       <c r="H15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>42578.645833333336</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="14">
         <v>6.25E-2</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="14" t="s">
+    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>42577.572916666664</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="16"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>42574.239583333336</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <v>0.38541666666666669</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="12" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4815,15 +4820,43 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="d71c36f1-f070-4f63-afd5-52f7d39fcb50">IT2014-266-72</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d71c36f1-f070-4f63-afd5-52f7d39fcb50">
+      <Url>http://infotech.standard.com/ITKH/ERM/_layouts/15/DocIdRedir.aspx?ID=IT2014-266-72</Url>
+      <Description>IT2014-266-72</Description>
+    </_dlc_DocIdUrl>
+    <Document_x0020_Type xmlns="ec6f6250-5671-4bbb-9099-1268163a50cb">Metrics</Document_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyAudit" staticId="0x0101|8138272" UniqueId="8a0f8421-ec3b-4e87-979f-035ce15721e0">
+      <p:Name>Auditing</p:Name>
+      <p:Description>Audits user actions on documents and list items to the Audit Log.</p:Description>
+      <p:CustomData>
+        <Audit>
+          <Update/>
+          <View/>
+          <CheckInOut/>
+          <MoveCopy/>
+          <DeleteRestore/>
+        </Audit>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -4917,41 +4950,13 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyAudit" staticId="0x0101|8138272" UniqueId="8a0f8421-ec3b-4e87-979f-035ce15721e0">
-      <p:Name>Auditing</p:Name>
-      <p:Description>Audits user actions on documents and list items to the Audit Log.</p:Description>
-      <p:CustomData>
-        <Audit>
-          <Update/>
-          <View/>
-          <CheckInOut/>
-          <MoveCopy/>
-          <DeleteRestore/>
-        </Audit>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="d71c36f1-f070-4f63-afd5-52f7d39fcb50">IT2014-266-72</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d71c36f1-f070-4f63-afd5-52f7d39fcb50">
-      <Url>http://infotech.standard.com/ITKH/ERM/_layouts/15/DocIdRedir.aspx?ID=IT2014-266-72</Url>
-      <Description>IT2014-266-72</Description>
-    </_dlc_DocIdUrl>
-    <Document_x0020_Type xmlns="ec6f6250-5671-4bbb-9099-1268163a50cb">Metrics</Document_x0020_Type>
-  </documentManagement>
-</p:properties>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5129,30 +5134,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D9223B-4C60-4740-A300-AB5EEB54F18F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C0CFC1-EC2B-42CA-B707-D9D7ACC5220B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78BFA0B9-9CD9-48B4-9C3A-FAD5FEE647A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFCEDDEF-88ED-4849-9A56-395390607743}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5166,6 +5147,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78BFA0B9-9CD9-48B4-9C3A-FAD5FEE647A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C0CFC1-EC2B-42CA-B707-D9D7ACC5220B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D9223B-4C60-4740-A300-AB5EEB54F18F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
